--- a/sheets/introducao_eC.xlsx
+++ b/sheets/introducao_eC.xlsx
@@ -161,7 +161,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -543,7 +543,7 @@
     <col min="5" max="5" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="51.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="103.86214285714286" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>41996</v>
       </c>
@@ -598,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>41996</v>
       </c>
@@ -624,7 +624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>41996</v>
       </c>
@@ -650,7 +650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>41996</v>
       </c>
@@ -676,7 +676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>41996</v>
       </c>
@@ -702,7 +702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>41996</v>
       </c>
@@ -728,7 +728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
         <v>41996</v>
       </c>
@@ -754,7 +754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
         <v>41996</v>
       </c>
@@ -780,7 +780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
         <v>41996</v>
       </c>
@@ -806,7 +806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3">
         <v>41996</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3">
         <v>41996</v>
       </c>
